--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1728581.163410775</v>
+        <v>1726375.070004336</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604725</v>
+        <v>7094780.682604726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>255.8332906806816</v>
+        <v>382.3911573688519</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866661</v>
+        <v>69.92680236866714</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776873</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>1.431576824121562</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6625960688247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>103.1498993442984</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>65.95263903154859</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015521</v>
       </c>
       <c r="S3" t="n">
-        <v>159.0353604252219</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>136.4847099166899</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>83.44242967727156</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>257.3050783981028</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>92.39479380343629</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>22.98569063694827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>242.8185888829009</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>17.60449103399014</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>10.70611463921582</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>32.49791859588824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>39.68014844805714</v>
       </c>
       <c r="E16" t="n">
-        <v>109.0074487674106</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,10 +1822,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>78.5345572734043</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.7328476307627</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>99.89574308244477</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>210.4215906786153</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>147.0633545968142</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>64.94444752323848</v>
       </c>
       <c r="D28" t="n">
-        <v>18.47631657875155</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2731,7 +2731,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>94.98805397668177</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>270.3808622796249</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>65.60180311118903</v>
+        <v>181.4487096095773</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880148</v>
+        <v>6.081513486880183</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
-        <v>32.04274916436014</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379233</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3487,10 +3487,10 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>128.5887509270283</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774356</v>
       </c>
       <c r="C38" t="n">
         <v>329.7774754849618</v>
@@ -3509,7 +3509,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
         <v>371.3806294556657</v>
@@ -3521,7 +3521,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880226</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840882</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C40" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>11.22989071230138</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.85700412379237</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V40" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W40" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029913</v>
+        <v>27.46706895933231</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C41" t="n">
         <v>329.7774754849618</v>
@@ -3746,10 +3746,10 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F41" t="n">
-        <v>371.380629455665</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G41" t="n">
         <v>375.4263093674077</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880219</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C43" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>23.48787321810926</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729824</v>
+        <v>80.90327856149004</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379229</v>
+        <v>60.85700412379236</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C44" t="n">
         <v>329.7774754849618</v>
@@ -3983,10 +3983,10 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F44" t="n">
-        <v>371.380629455665</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
         <v>375.4263093674077</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880226</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213002</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2568421840891</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313672</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X44" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>81.11137677745285</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605234</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>79.89036393785192</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379229</v>
+        <v>60.85700412379237</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T46" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V46" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W46" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2160.416384320161</v>
+        <v>1214.459870897007</v>
       </c>
       <c r="C2" t="n">
-        <v>1791.45386737975</v>
+        <v>845.4973539565954</v>
       </c>
       <c r="D2" t="n">
-        <v>1433.188168772999</v>
+        <v>845.4973539565954</v>
       </c>
       <c r="E2" t="n">
-        <v>1047.399916174755</v>
+        <v>845.4973539565954</v>
       </c>
       <c r="F2" t="n">
-        <v>636.4140113851474</v>
+        <v>434.5114491669878</v>
       </c>
       <c r="G2" t="n">
-        <v>377.9965460511256</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501644</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501644</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J2" t="n">
-        <v>143.361340524479</v>
+        <v>143.3613405244778</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293513</v>
+        <v>406.6417666293491</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024654</v>
+        <v>785.5410436024622</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782773</v>
+        <v>1223.746040782768</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400865</v>
+        <v>1654.409655400859</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671749</v>
+        <v>2015.885456671742</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110682</v>
+        <v>2286.722307110674</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750822</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045098</v>
+        <v>2342.254609045088</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320161</v>
+        <v>2160.416384320151</v>
       </c>
       <c r="T2" t="n">
-        <v>2160.416384320161</v>
+        <v>1940.694284428201</v>
       </c>
       <c r="U2" t="n">
-        <v>2160.416384320161</v>
+        <v>1940.694284428201</v>
       </c>
       <c r="V2" t="n">
-        <v>2160.416384320161</v>
+        <v>1940.694284428201</v>
       </c>
       <c r="W2" t="n">
-        <v>2160.416384320161</v>
+        <v>1587.925629158087</v>
       </c>
       <c r="X2" t="n">
-        <v>2160.416384320161</v>
+        <v>1214.459870897007</v>
       </c>
       <c r="Y2" t="n">
-        <v>2160.416384320161</v>
+        <v>1214.459870897007</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.6520506276047</v>
+        <v>692.9710606982792</v>
       </c>
       <c r="C3" t="n">
-        <v>745.1990213464777</v>
+        <v>518.5180314171522</v>
       </c>
       <c r="D3" t="n">
-        <v>596.2646116852264</v>
+        <v>369.5836217559009</v>
       </c>
       <c r="E3" t="n">
-        <v>437.0271566797709</v>
+        <v>368.1375845598185</v>
       </c>
       <c r="F3" t="n">
-        <v>290.4925987066559</v>
+        <v>221.6030265867035</v>
       </c>
       <c r="G3" t="n">
-        <v>152.4495723745098</v>
+        <v>221.6030265867035</v>
       </c>
       <c r="H3" t="n">
-        <v>48.25775485501644</v>
+        <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501644</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719587</v>
+        <v>70.84789150582858</v>
       </c>
       <c r="K3" t="n">
-        <v>149.6153884757298</v>
+        <v>305.059737584222</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519736</v>
+        <v>681.3908644604649</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664345</v>
+        <v>1172.530760772835</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.93233298719</v>
+        <v>1692.376682095679</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602215</v>
+        <v>2101.518461710703</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642325</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750822</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="R3" t="n">
-        <v>2412.887742750822</v>
+        <v>2354.422089841565</v>
       </c>
       <c r="S3" t="n">
-        <v>2252.245964543527</v>
+        <v>2193.78031163427</v>
       </c>
       <c r="T3" t="n">
-        <v>2052.831682881828</v>
+        <v>1994.366029972571</v>
       </c>
       <c r="U3" t="n">
-        <v>1824.653314558036</v>
+        <v>1766.187661648778</v>
       </c>
       <c r="V3" t="n">
-        <v>1589.501206326293</v>
+        <v>1531.035553417036</v>
       </c>
       <c r="W3" t="n">
-        <v>1335.263849598091</v>
+        <v>1276.798196688834</v>
       </c>
       <c r="X3" t="n">
-        <v>1127.412349392559</v>
+        <v>1068.946696483301</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.6520506276047</v>
+        <v>861.1863977183473</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>449.3923138676109</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="C4" t="n">
-        <v>280.4561309397041</v>
+        <v>493.1774353476554</v>
       </c>
       <c r="D4" t="n">
-        <v>280.4561309397041</v>
+        <v>343.0607959353197</v>
       </c>
       <c r="E4" t="n">
-        <v>132.5430373573109</v>
+        <v>195.1477023529266</v>
       </c>
       <c r="F4" t="n">
-        <v>132.5430373573109</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501644</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501644</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501644</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501644</v>
+        <v>48.25775485501624</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461069</v>
+        <v>91.87143294461006</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384354</v>
+        <v>203.2083598384342</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534303</v>
+        <v>330.9866617534285</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692873</v>
+        <v>461.1612976692849</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984549</v>
+        <v>565.382347798452</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="X4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.0407786978507</v>
+        <v>631.0407786978473</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.061221751177</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1083.098704810766</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>724.8330062040152</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>724.8330062040152</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>313.8471014144076</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.661061815299</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,19 +4647,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4674,13 +4674,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1837.140060718708</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C8" t="n">
-        <v>1468.177543778296</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>1109.911845171546</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>724.1235925733013</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>313.1376877836937</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>299.2142837222846</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2679.366776842475</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2503.189289156645</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1953.491734785137</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1600.723079515023</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.140060718708</v>
+        <v>1227.257321253943</v>
       </c>
       <c r="Y8" t="n">
-        <v>1837.140060718708</v>
+        <v>837.1179892781316</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,52 +5039,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>360.1279170711156</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1014.851249206415</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1465.885462454824</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>1999.417367126749</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>876.4469737784535</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C13" t="n">
-        <v>707.5107908505466</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D13" t="n">
-        <v>557.3941514382109</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5221,7 +5221,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5233,16 +5233,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783406</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>909.2731541783406</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>876.4469737784535</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>876.4469737784535</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>416.1091927888615</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>935.9680914862104</v>
+        <v>401.9038525862965</v>
       </c>
       <c r="C16" t="n">
-        <v>767.0319085583035</v>
+        <v>232.9676696583896</v>
       </c>
       <c r="D16" t="n">
-        <v>616.9152691459677</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5440,10 +5440,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384228</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.957642384228</v>
+        <v>811.5418683145535</v>
       </c>
       <c r="X16" t="n">
-        <v>935.9680914862104</v>
+        <v>583.5523174165362</v>
       </c>
       <c r="Y16" t="n">
-        <v>935.9680914862104</v>
+        <v>583.5523174165362</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.4172407837245</v>
+        <v>492.7083461157125</v>
       </c>
       <c r="C19" t="n">
-        <v>409.4810578558177</v>
+        <v>492.7083461157125</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>342.5917067033768</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,10 +5671,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1821.259781629185</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1532.156914754829</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1277.472426548942</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W19" t="n">
-        <v>988.0552565119816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>760.0657056139643</v>
+        <v>895.1493900894823</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.0657056139643</v>
+        <v>674.3568109459521</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>444.6760255082871</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1099.399357643587</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1963.918173296941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5777,19 +5777,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>590.1253288168955</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>590.1253288168955</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D22" t="n">
-        <v>440.0086894045597</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E22" t="n">
-        <v>440.0086894045597</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.962769867859</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437385</v>
       </c>
       <c r="U22" t="n">
-        <v>1764.65758193153</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1509.973093725644</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.555923688683</v>
+        <v>725.9916293201817</v>
       </c>
       <c r="X22" t="n">
-        <v>992.5663727906654</v>
+        <v>498.0020784221643</v>
       </c>
       <c r="Y22" t="n">
-        <v>771.7737936471352</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K23" t="n">
-        <v>750.1800661608916</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1614.698881814246</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644075</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1552.110520639999</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1263.007653765643</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1008.323165559756</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>718.9059955227953</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>490.9164446247779</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>444.6760255082871</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1099.399357643587</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1963.918173296941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6306,7 +6306,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320243</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.3827746590082</v>
+        <v>772.088096809739</v>
       </c>
       <c r="C28" t="n">
-        <v>673.3827746590082</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D28" t="n">
-        <v>654.7198286198654</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6388,16 +6388,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>992.8806759532691</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590082</v>
+        <v>772.088096809739</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,16 +6464,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>806.161341878638</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531993</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>389.6913148129297</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6652,19 +6652,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1446.94343723168</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1446.94343723168</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1157.52626719472</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>929.5367162967025</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>708.7441371531723</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1650.184003770974</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.715908442899</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N32" t="n">
-        <v>3163.468180669545</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O32" t="n">
-        <v>3666.440651548882</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4379.795738995828</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>675.7429179653791</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>506.8067350374722</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>506.8067350374722</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374722</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374722</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121911</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W34" t="n">
-        <v>1124.525048006927</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>896.5354971089092</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>675.7429179653791</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D35" t="n">
         <v>1456.742661151839</v>
@@ -6923,64 +6923,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571338</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285447</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1471.802653981899</v>
+        <v>1065.913843378165</v>
       </c>
       <c r="M35" t="n">
-        <v>2450.352956811728</v>
+        <v>2044.464146207993</v>
       </c>
       <c r="N35" t="n">
-        <v>3024.216418434638</v>
+        <v>3024.21641843464</v>
       </c>
       <c r="O35" t="n">
-        <v>3527.188889313975</v>
+        <v>3527.188889313977</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671153</v>
+        <v>3921.963255671155</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
         <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J36" t="n">
         <v>178.2626031702901</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.25898808677</v>
+        <v>637.3099841867909</v>
       </c>
       <c r="C37" t="n">
-        <v>582.25898808677</v>
+        <v>504.2277571033746</v>
       </c>
       <c r="D37" t="n">
-        <v>549.8925747894366</v>
+        <v>389.9650735355296</v>
       </c>
       <c r="E37" t="n">
-        <v>437.8334370515342</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="F37" t="n">
-        <v>326.7974453981145</v>
+        <v>277.9059357976271</v>
       </c>
       <c r="G37" t="n">
-        <v>194.9485646173243</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
         <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7135,10 +7135,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715588</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725193</v>
+        <v>783.1044931725398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D38" t="n">
         <v>1456.742661151839</v>
@@ -7160,64 +7160,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571344</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967276</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285447</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1471.802653981899</v>
+        <v>1065.913843378165</v>
       </c>
       <c r="M38" t="n">
-        <v>2005.334558653824</v>
+        <v>2044.464146207994</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.164983310267</v>
+        <v>3024.216418434641</v>
       </c>
       <c r="O38" t="n">
-        <v>3462.129633639722</v>
+        <v>3527.188889313978</v>
       </c>
       <c r="P38" t="n">
-        <v>3856.9039999969</v>
+        <v>3921.963255671156</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752582</v>
+        <v>4170.249617426838</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.26668398364</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355226</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583939</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702266</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203186</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967276</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7257,7 +7257,7 @@
         <v>416.5268021506373</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633026</v>
+        <v>783.2249624633027</v>
       </c>
       <c r="M39" t="n">
         <v>1230.501287685619</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.25898808677</v>
+        <v>746.6500690399598</v>
       </c>
       <c r="C40" t="n">
-        <v>449.1767610033538</v>
+        <v>613.5678419565436</v>
       </c>
       <c r="D40" t="n">
-        <v>437.8334370515342</v>
+        <v>499.3051583886985</v>
       </c>
       <c r="E40" t="n">
-        <v>437.8334370515342</v>
+        <v>499.3051583886985</v>
       </c>
       <c r="F40" t="n">
-        <v>326.7974453981146</v>
+        <v>388.2691667352788</v>
       </c>
       <c r="G40" t="n">
-        <v>194.9485646173243</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967276</v>
+        <v>84.5853336796728</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497935</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218552</v>
+        <v>403.976073321855</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935361</v>
       </c>
       <c r="M40" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.97384161627</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045764</v>
@@ -7354,28 +7354,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715584</v>
+        <v>1077.383201324749</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.053497072519</v>
+        <v>892.4445780257089</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.262965010021</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398086</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529683</v>
+        <v>731.676415452969</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424561</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571341</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J41" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285447</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1471.802653981899</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M41" t="n">
-        <v>2044.464146207991</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.216418434638</v>
+        <v>3016.620626633429</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313975</v>
+        <v>3519.593097512766</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671153</v>
+        <v>3914.367463869944</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360973</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229652</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.1716476727536</v>
+        <v>582.2589880867688</v>
       </c>
       <c r="C43" t="n">
-        <v>635.0894205893374</v>
+        <v>449.1767610033526</v>
       </c>
       <c r="D43" t="n">
-        <v>611.3642961266005</v>
+        <v>449.1767610033526</v>
       </c>
       <c r="E43" t="n">
-        <v>499.3051583886981</v>
+        <v>449.1767610033526</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352784</v>
+        <v>338.1407693499328</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544881</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7582,37 +7582,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T43" t="n">
-        <v>2016.6830325948</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U43" t="n">
-        <v>1763.434121564934</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.603589203538</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W43" t="n">
-        <v>1291.040375011069</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.904779957542</v>
+        <v>912.9921203715573</v>
       </c>
       <c r="Y43" t="n">
-        <v>913.9661566585025</v>
+        <v>728.0534970725179</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571342</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J44" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285447</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L44" t="n">
-        <v>1065.913843378163</v>
+        <v>1121.895119095911</v>
       </c>
       <c r="M44" t="n">
-        <v>2044.464146207991</v>
+        <v>2100.44542192574</v>
       </c>
       <c r="N44" t="n">
-        <v>3024.216418434638</v>
+        <v>2647.224238984522</v>
       </c>
       <c r="O44" t="n">
-        <v>3527.188889313975</v>
+        <v>3527.188889313977</v>
       </c>
       <c r="P44" t="n">
-        <v>3921.963255671153</v>
+        <v>3921.963255671155</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2589880867697</v>
+        <v>582.2589880867686</v>
       </c>
       <c r="C46" t="n">
-        <v>582.2589880867697</v>
+        <v>449.1767610033523</v>
       </c>
       <c r="D46" t="n">
-        <v>500.328304473181</v>
+        <v>449.1767610033523</v>
       </c>
       <c r="E46" t="n">
-        <v>388.2691667352785</v>
+        <v>337.1176232654499</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352785</v>
+        <v>337.1176232654499</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544882</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935369</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7822,7 +7822,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
         <v>2226.491462321464</v>
@@ -7840,16 +7840,16 @@
         <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X46" t="n">
-        <v>912.992120371558</v>
+        <v>912.9921203715576</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725187</v>
+        <v>728.0534970725176</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>85.32383557664163</v>
       </c>
       <c r="K3" t="n">
-        <v>66.68354319982804</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>53.06279368686299</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>76.45227440777347</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>401.5033668799356</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.9990175570117</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K23" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>189.7998007892643</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,10 +10121,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>338.5992815305711</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>26.15484791631846</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>7.672516970920071</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>27.35822683245226</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>7.672516970921038</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>30.35515918955628</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>39.52483591330042</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>7.6725169709201</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>7.672516970918366</v>
+        <v>64.21926012015894</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>69.99732345939717</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983569</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>193.2117367931489</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>108.9353245701552</v>
       </c>
       <c r="E16" t="n">
-        <v>37.42651387915862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>67.89940537316487</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23941,7 +23941,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>85.81610164540649</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>45.52530494048649</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9.127358597553862</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>102.3023735753894</v>
       </c>
       <c r="D28" t="n">
-        <v>130.1391564394608</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>191.2237842289311</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>220.921195225402</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>81.07730756780641</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>54.50048613902072</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.8901660198652</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>110.9385463605234</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>162.7471701436591</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>89.63218351405729</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>49.62711341149246</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>32.00867995471371</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.64002803513058</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897877.7408966771</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912651.0960301067</v>
+        <v>912651.0960301068</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912651.0960301069</v>
+        <v>912651.0960301068</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="F2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="F2" t="n">
-        <v>516206.3229530785</v>
-      </c>
       <c r="G2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="H2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="K2" t="n">
         <v>516206.322953078</v>
-      </c>
-      <c r="I2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="J2" t="n">
-        <v>516206.3229530782</v>
-      </c>
-      <c r="K2" t="n">
-        <v>516206.3229530783</v>
       </c>
       <c r="L2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="M2" t="n">
+        <v>529407.6532343193</v>
+      </c>
+      <c r="N2" t="n">
+        <v>529407.6532343187</v>
+      </c>
+      <c r="O2" t="n">
         <v>529407.6532343192</v>
       </c>
-      <c r="N2" t="n">
-        <v>529407.6532343193</v>
-      </c>
-      <c r="O2" t="n">
-        <v>529407.6532343194</v>
-      </c>
       <c r="P2" t="n">
-        <v>529407.6532343193</v>
+        <v>529407.6532343188</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394295</v>
+        <v>507203.1428394267</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.2821741778</v>
+        <v>78665.28217418052</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.400141074</v>
+        <v>157829.4001410734</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022108</v>
+        <v>18289.94367022167</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455546</v>
+        <v>223242.9088455553</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,16 +26424,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
@@ -26445,19 +26445,19 @@
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>53328.24410000355</v>
+        <v>53328.24410000353</v>
       </c>
       <c r="N4" t="n">
-        <v>53328.24410000358</v>
+        <v>53328.24410000347</v>
       </c>
       <c r="O4" t="n">
-        <v>53328.24410000358</v>
+        <v>53328.2441000035</v>
       </c>
       <c r="P4" t="n">
-        <v>53328.24410000358</v>
+        <v>53328.24410000349</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133451</v>
+        <v>77204.68871133431</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123681</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.0498212368</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-273973.5899845342</v>
+        <v>-273973.5899845318</v>
       </c>
       <c r="C6" t="n">
-        <v>171088.2842464655</v>
+        <v>171088.2842464628</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206433</v>
+        <v>249753.5664206432</v>
       </c>
       <c r="E6" t="n">
-        <v>-332645.332969036</v>
+        <v>-332712.5284592619</v>
       </c>
       <c r="F6" t="n">
-        <v>394732.0810243711</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="G6" t="n">
-        <v>394732.0810243709</v>
+        <v>394664.8855341448</v>
       </c>
       <c r="H6" t="n">
-        <v>394732.0810243706</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="I6" t="n">
-        <v>394732.0810243707</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="J6" t="n">
-        <v>236902.6808832967</v>
+        <v>236835.4853930715</v>
       </c>
       <c r="K6" t="n">
-        <v>376442.1373541497</v>
+        <v>376374.941863923</v>
       </c>
       <c r="L6" t="n">
-        <v>394732.0810243707</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="M6" t="n">
-        <v>261204.5681249039</v>
+        <v>261188.1469819136</v>
       </c>
       <c r="N6" t="n">
-        <v>385053.359313079</v>
+        <v>385036.9381700882</v>
       </c>
       <c r="O6" t="n">
-        <v>385053.3593130791</v>
+        <v>385036.9381700886</v>
       </c>
       <c r="P6" t="n">
-        <v>385053.359313079</v>
+        <v>385036.9381700883</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688999</v>
+        <v>316.5685789688978</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877055</v>
+        <v>603.2219356877031</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688999</v>
+        <v>316.5685789688978</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818669</v>
+        <v>61.17508524818884</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877055</v>
+        <v>603.2219356877031</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685013</v>
+        <v>71.06533706685252</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877055</v>
+        <v>603.2219356877031</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685013</v>
+        <v>71.06533706685241</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413538</v>
+        <v>383.0293982413542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877055</v>
+        <v>603.2219356877031</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685013</v>
+        <v>71.06533706685252</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>158.1968093310609</v>
+        <v>31.63894264289064</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208641</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.2135036312794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>2.509280638523379</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154843</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015493</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.76211118193794</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.97768830927608</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2831165792399</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255581</v>
+        <v>52.99928112255608</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273905</v>
+        <v>38.36018782739081</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365108</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0680412192119</v>
+        <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>156.4790916226922</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>124.0535265542215</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>125.6297823812641</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>81.10418388145621</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>36.87391154082159</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>241.4315286846122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.40873987422674e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604493</v>
       </c>
       <c r="C38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604675</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604646</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604646</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="I44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.4954162860458</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392562</v>
+        <v>1.272637503392553</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161908</v>
+        <v>13.03339883161899</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954178</v>
+        <v>49.06335734954146</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035645</v>
+        <v>108.0135173035638</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221717</v>
+        <v>161.8842628221706</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166218</v>
+        <v>200.8317428166205</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175793</v>
+        <v>223.4640100175778</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240934</v>
+        <v>227.0798913240919</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497336</v>
+        <v>214.4251021497322</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847297</v>
+        <v>183.0068637847285</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944836</v>
+        <v>137.4305331944827</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248307</v>
+        <v>79.94231557248254</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855803</v>
+        <v>29.00022710855783</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100941</v>
+        <v>5.570970671100905</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714049</v>
+        <v>0.1018110002714042</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859357</v>
+        <v>0.6809210943859312</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674696</v>
+        <v>6.576264253674653</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986665</v>
+        <v>23.4439938198665</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933089</v>
+        <v>64.33211093933046</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631886</v>
+        <v>109.9538242631879</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665603</v>
+        <v>147.8464858665593</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380504</v>
+        <v>172.5298755380493</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648755</v>
+        <v>177.0962279648743</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313766</v>
+        <v>162.0084500313755</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674337</v>
+        <v>130.0260640674328</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915911</v>
+        <v>86.91898039915853</v>
       </c>
       <c r="R3" t="n">
-        <v>42.2768377724882</v>
+        <v>42.27683777248792</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861595</v>
+        <v>12.64781067861586</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739802</v>
+        <v>2.744589849739783</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012737</v>
+        <v>0.04479744042012707</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.570861371911131</v>
+        <v>0.5708613719111272</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173514</v>
+        <v>5.07547656117348</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801838</v>
+        <v>17.16735834801826</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411696</v>
+        <v>40.35989899411669</v>
       </c>
       <c r="K4" t="n">
-        <v>66.3237121184023</v>
+        <v>66.32371211840186</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667853</v>
+        <v>84.87151705667796</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148755</v>
+        <v>89.48511487148696</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890977</v>
+        <v>87.35735884890919</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522061</v>
+        <v>80.68866009522009</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823349</v>
+        <v>69.04308810823302</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430389</v>
+        <v>47.80185542430358</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065867</v>
+        <v>25.6680031406585</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760343</v>
+        <v>9.948556817760277</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711195</v>
+        <v>2.439134952711179</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333445</v>
+        <v>0.03113789301333425</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33989,10 +33989,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895201</v>
+        <v>96.06422794895128</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483558</v>
+        <v>265.9398243483548</v>
       </c>
       <c r="L2" t="n">
-        <v>382.726542397085</v>
+        <v>382.7265423970837</v>
       </c>
       <c r="M2" t="n">
-        <v>442.631310283139</v>
+        <v>442.6313102831376</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394867</v>
+        <v>435.0137521394852</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907923</v>
+        <v>365.1270719907908</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009429</v>
+        <v>273.5725762009416</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799388</v>
+        <v>127.4398339799379</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307303</v>
+        <v>22.81831984930539</v>
       </c>
       <c r="K3" t="n">
-        <v>38.79592848865762</v>
+        <v>236.5776223014075</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901453</v>
+        <v>380.1324513901443</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660321</v>
+        <v>496.1009053660309</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250956</v>
+        <v>525.0968902250945</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636617</v>
+        <v>413.2745248636605</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930406</v>
+        <v>314.5144252930397</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489867</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251945</v>
+        <v>44.05422029251901</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169947</v>
+        <v>112.4615423169941</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333281</v>
+        <v>129.0689918333275</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281384</v>
+        <v>131.4895312281378</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092603</v>
+        <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312698</v>
+        <v>66.32164737312651</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>267.239275376486</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>953.8052022928471</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>323.7860185257243</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>352.6414051110027</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K23" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>352.6414051110027</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36832,7 +36832,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446648</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
@@ -36841,10 +36841,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>794.1893959229033</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.9491527200379</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>463.2626313632522</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>579.6600622453637</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911199</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37473,7 +37473,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
@@ -37482,7 +37482,7 @@
         <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>463.2626313632532</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>582.6569946024678</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562439</v>
@@ -37710,16 +37710,16 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>578.4459517435272</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>258.4668217746396</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597709</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
@@ -37950,13 +37950,13 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P43" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>463.2626313632505</v>
+        <v>519.8093745124911</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597712</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
         <v>355.2527884562439</v>
@@ -38184,16 +38184,16 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
